--- a/biology/Biologie cellulaire et moléculaire/Cellule_de_Kupffer/Cellule_de_Kupffer.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cellule_de_Kupffer/Cellule_de_Kupffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cellules de Kupffer sont les macrophages[1]  résidants appartenant au groupe des macrophages hépatiques et notamment au lobule hépatique où elles sont très nombreuses (jusqu'à environ 30 % de toutes les cellules hépatiques chez l'être humain[2]). Elles se déforment et émettent un certain nombre de prolongements cytoplasmiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cellules de Kupffer sont les macrophages  résidants appartenant au groupe des macrophages hépatiques et notamment au lobule hépatique où elles sont très nombreuses (jusqu'à environ 30 % de toutes les cellules hépatiques chez l'être humain). Elles se déforment et émettent un certain nombre de prolongements cytoplasmiques.
 Elles tirent leur nom de celui de Karl Wilhelm von Kupffer qui les a décrites (en 1876) pour la première fois.
 On les classe parmi les cellules dites réticulo-endothéliales, qui possèdent des propriétés macrophagiques et parmi les « macrophages stellaires » (en raison de leur forme en étoile).
 </t>
@@ -513,9 +525,11 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur principal rôle est de phagocyter les microbes qui auraient pénétré le foie, ou certains déchets métaboliques afin d'épurer le sang des débris cellulaires tels que les hématies âgées[3] et les restes d'hémoglobine[3]. Ils éliminent divers corps nécrotiques et corps apoptotiques qui seraient produits par le foie, ce qui permet d'éviter respectivement l'infection du foie ou sa nécrose.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur principal rôle est de phagocyter les microbes qui auraient pénétré le foie, ou certains déchets métaboliques afin d'épurer le sang des débris cellulaires tels que les hématies âgées et les restes d'hémoglobine. Ils éliminent divers corps nécrotiques et corps apoptotiques qui seraient produits par le foie, ce qui permet d'éviter respectivement l'infection du foie ou sa nécrose.
 Elles jouent aussi un rôle dans l'immunité adaptative.
 </t>
         </is>
@@ -545,11 +559,13 @@
           <t>Origine et cycle vital</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cellules de Kupffer sont des macrophages embryonnaires. Ils dérivent directement de cellules de la vésicule vitelline et sont capables d'auto-renouvellement et de maintenance indépendamment des monocytes[4]. Les avancées technologiques récentes ont permis le rejet définitif du système phagocytaire mononucléaire affirmant que les macrophages résidents dérivés des  et la reconnaissance des macrophages résidant dans les tissus en tant que populations uniques indépendantes de la différenciation monocytaire [5],[6],[7],[8].
-Les macrophages résidant dans les tissus de la plupart des organes humains sont établies au cours de l'embryogenèse et maintenues par auto-renouvellement [9]. Les macrophages résidant dans les tissus sont uniques dans leur capacité à réintégrer le cycle cellulaire en tant que cellules entièrement différenciées [9].
-On retrouve des cellules de Küpfer dans les capillaires à endothéliums discontinus ou sinusoïdes (lame basale discontinue), qui irriguent et drainent le foie, plus précisément dans ce qu'on appelle : l'espace de Disse[10]. L'espace de Disse est situé entre un hépatocyte et un vaisseau sanguin. Cet espace comprend également des cellules d'Ito (ou cellules stellaires)[réf. souhaitée]. La cohésion de cet ensemble est assuré par un feutrage de collagène III. Ce schéma est retrouvé dans les organes type lymphoïdes et hématopoïétique, comme le foie et la rate[réf. souhaitée].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cellules de Kupffer sont des macrophages embryonnaires. Ils dérivent directement de cellules de la vésicule vitelline et sont capables d'auto-renouvellement et de maintenance indépendamment des monocytes. Les avancées technologiques récentes ont permis le rejet définitif du système phagocytaire mononucléaire affirmant que les macrophages résidents dérivés des  et la reconnaissance des macrophages résidant dans les tissus en tant que populations uniques indépendantes de la différenciation monocytaire .
+Les macrophages résidant dans les tissus de la plupart des organes humains sont établies au cours de l'embryogenèse et maintenues par auto-renouvellement . Les macrophages résidant dans les tissus sont uniques dans leur capacité à réintégrer le cycle cellulaire en tant que cellules entièrement différenciées .
+On retrouve des cellules de Küpfer dans les capillaires à endothéliums discontinus ou sinusoïdes (lame basale discontinue), qui irriguent et drainent le foie, plus précisément dans ce qu'on appelle : l'espace de Disse. L'espace de Disse est situé entre un hépatocyte et un vaisseau sanguin. Cet espace comprend également des cellules d'Ito (ou cellules stellaires)[réf. souhaitée]. La cohésion de cet ensemble est assuré par un feutrage de collagène III. Ce schéma est retrouvé dans les organes type lymphoïdes et hématopoïétique, comme le foie et la rate[réf. souhaitée].
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Activation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces cellules sont activées par divers substances ou toxines dont :
 les cytokines pro-inflammatoires (dont TNFa, IL (interleukine) 6, IL8, y compris en réponse à l'alcoolisme ;
@@ -616,10 +634,12 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules de Küpffer peuvent être endommagées par certaines maladies (ex : hémochromatose).
-Elles sont notamment impliquées dans les effets de l'alcoolisme sur le foie (cirrhose)[11] à la suite de la production d'endotoxine dans le foie exposé à l'alcool éthylique[12]
+Elles sont notamment impliquées dans les effets de l'alcoolisme sur le foie (cirrhose) à la suite de la production d'endotoxine dans le foie exposé à l'alcool éthylique
 </t>
         </is>
       </c>
@@ -648,7 +668,9 @@
           <t>Scintigraphie hépatique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La scintigraphie hépatique est facilitée par les cellules de Kupffer qui absorbent le produit radioactif injecté dans le sang (de même que les hépatocytes), permettant notamment de diagnostiquer d'éventuelles tumeurs du foie ou certaines autres anomalies.
 </t>
